--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2826052.390459995</v>
+        <v>2825374.569779723</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.451805855</v>
       </c>
     </row>
     <row r="9">
@@ -1370,70 +1370,70 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
+        <v>51.73381453553324</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>55.76720738385745</v>
+      </c>
+      <c r="V11" t="n">
         <v>122.0492982736044</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="X11" t="n">
-        <v>107.5010219193908</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,64 +1458,64 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>67.94110309189271</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.136586121265598</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>20.56530653072814</v>
+      </c>
+      <c r="U12" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>20.56530653072805</v>
-      </c>
-      <c r="U12" t="n">
-        <v>42.84521610603985</v>
-      </c>
       <c r="V12" t="n">
-        <v>46.26644524054763</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W12" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461599</v>
+        <v>51.79731880822593</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.001810459171</v>
+        <v>29.00181045917108</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420589</v>
+        <v>8.831062059420676</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871272</v>
+        <v>40.9716860187128</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199514</v>
+        <v>29.35851686199523</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013474</v>
+        <v>94.27381875013482</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959528</v>
+        <v>50.72653950959537</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448071</v>
+        <v>95.92823141448079</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338791</v>
+        <v>27.53697973338799</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.7587971393138</v>
+        <v>22.75879713931388</v>
       </c>
     </row>
     <row r="14">
@@ -1607,73 +1607,73 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>107.5010219193908</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="W14" t="n">
-        <v>107.5010219193907</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>122.0492982736044</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>35.74885430901805</v>
       </c>
       <c r="D15" t="n">
-        <v>24.62080564890711</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072797</v>
+        <v>20.565306530728</v>
       </c>
       <c r="U15" t="n">
-        <v>42.84521610603976</v>
+        <v>42.84521610603979</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054754</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215689</v>
+        <v>72.32210790215692</v>
       </c>
       <c r="X15" t="n">
-        <v>22.9304387646159</v>
+        <v>22.93043876461593</v>
       </c>
       <c r="Y15" t="n">
-        <v>122.0492982736044</v>
+        <v>29.00181045917094</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420503</v>
+        <v>8.831062059420534</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871263</v>
+        <v>40.97168601871266</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199506</v>
+        <v>29.35851686199508</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013465</v>
+        <v>94.27381875013468</v>
       </c>
       <c r="V16" t="n">
-        <v>50.7265395095952</v>
+        <v>50.72653950959523</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448062</v>
+        <v>95.92823141448065</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338782</v>
+        <v>27.53697973338785</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931371</v>
+        <v>22.75879713931374</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>53.20745676868131</v>
       </c>
       <c r="C17" t="n">
-        <v>29.3257137720268</v>
+        <v>29.32571377202735</v>
       </c>
       <c r="D17" t="n">
         <v>16.89237603307527</v>
@@ -1938,46 +1938,46 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>107.5010219193908</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>122.0492982736044</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>122.0492982736044</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>107.5010219193908</v>
+        <v>122.0492982736044</v>
       </c>
     </row>
     <row r="19">
@@ -2090,7 +2090,7 @@
         <v>50.59912845248414</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086135</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G20" t="n">
         <v>97.94765892927438</v>
@@ -2163,64 +2163,64 @@
         <v>122.0492982736044</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>107.1657389737211</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.3352829456697157</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>107.5010219193908</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>107.5010219193908</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R24" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>122.0492982736044</v>
+        <v>101.3644357981252</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,28 +2676,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265591</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9477822055827</v>
+        <v>2.03062495744236</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275416</v>
+        <v>92.31795511625373</v>
       </c>
       <c r="V27" t="n">
         <v>27.73176366726193</v>
       </c>
       <c r="W27" t="n">
-        <v>190.0820309618657</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.39575719133029</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>10.4671288858853</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>25.62026380070895</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2913,22 +2913,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265591</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
-        <v>214.9477822055827</v>
+        <v>97.60763940602205</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275421</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.73176366726199</v>
       </c>
       <c r="W30" t="n">
         <v>53.78742632887133</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,16 +3150,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265569</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9477822055827</v>
+        <v>91.47105328475676</v>
       </c>
       <c r="U33" t="n">
         <v>237.2276917808945</v>
@@ -3168,7 +3168,7 @@
         <v>27.73176366726196</v>
       </c>
       <c r="W33" t="n">
-        <v>103.4713315285834</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X33" t="n">
         <v>4.395757191330318</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>112.0853666541554</v>
+        <v>81.56324685865876</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514646</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>108.6641375196476</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>18.61134966514646</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>123.370981977046</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.4911558421804</v>
+        <v>133.4911558421805</v>
       </c>
       <c r="C41" t="n">
-        <v>109.6094128455259</v>
+        <v>109.609412845526</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657442</v>
       </c>
       <c r="E41" t="n">
-        <v>130.8828275259832</v>
+        <v>130.8828275259833</v>
       </c>
       <c r="F41" t="n">
         <v>162.6031651043606</v>
       </c>
       <c r="G41" t="n">
-        <v>178.2313580027735</v>
+        <v>178.2313580027736</v>
       </c>
       <c r="H41" t="n">
         <v>106.3154211158329</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059057</v>
+        <v>9.553598523059113</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349915</v>
       </c>
       <c r="W41" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011402</v>
       </c>
       <c r="X41" t="n">
-        <v>119.1866297590532</v>
+        <v>119.1866297590533</v>
       </c>
       <c r="Y41" t="n">
         <v>141.689482882797</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>140.9963546022476</v>
       </c>
       <c r="G42" t="n">
-        <v>123.747367945705</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.9327450352522</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974932276</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>26.10849904135873</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.06020988933643</v>
+        <v>48.06020988933648</v>
       </c>
       <c r="V43" t="n">
-        <v>4.512930648796981</v>
+        <v>4.512930648797038</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368246</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657439</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8828275259832</v>
+        <v>130.8828275259833</v>
       </c>
       <c r="F44" t="n">
         <v>162.6031651043606</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059087</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349912</v>
       </c>
       <c r="W44" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011399</v>
       </c>
       <c r="X44" t="n">
         <v>119.1866297590532</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.59563313748546</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05283637974932276</v>
+        <v>0.05283637974935118</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>116.1873771405443</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.06020988933643</v>
+        <v>48.06020988933646</v>
       </c>
       <c r="V46" t="n">
-        <v>4.512930648796981</v>
+        <v>4.51293064879701</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368243</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.328182798463</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="C11" t="n">
-        <v>133.0460633301757</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="D11" t="n">
-        <v>9.763943861888356</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="E11" t="n">
-        <v>9.763943861888356</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="F11" t="n">
-        <v>9.763943861888356</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="G11" t="n">
-        <v>9.763943861888356</v>
+        <v>62.02032218060881</v>
       </c>
       <c r="H11" t="n">
         <v>9.763943861888356</v>
@@ -5039,28 +5039,28 @@
         <v>9.763943861888356</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888356</v>
+        <v>38.19170303107161</v>
       </c>
       <c r="K11" t="n">
-        <v>9.763943861888356</v>
+        <v>159.02050832194</v>
       </c>
       <c r="L11" t="n">
-        <v>58.16119434887576</v>
+        <v>207.4177588089274</v>
       </c>
       <c r="M11" t="n">
-        <v>140.8884203519928</v>
+        <v>290.1449848120444</v>
       </c>
       <c r="N11" t="n">
-        <v>261.7172256428612</v>
+        <v>367.3683878035494</v>
       </c>
       <c r="O11" t="n">
-        <v>367.1951622535494</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="P11" t="n">
-        <v>488.0239675444178</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444178</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="R11" t="n">
         <v>488.1971930944178</v>
@@ -5072,19 +5072,19 @@
         <v>488.1971930944178</v>
       </c>
       <c r="U11" t="n">
-        <v>488.1971930944178</v>
+        <v>431.8666805854709</v>
       </c>
       <c r="V11" t="n">
-        <v>488.1971930944178</v>
+        <v>308.5845611171835</v>
       </c>
       <c r="W11" t="n">
-        <v>364.9150736261305</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="X11" t="n">
-        <v>256.328182798463</v>
+        <v>185.3024416488961</v>
       </c>
       <c r="Y11" t="n">
-        <v>256.328182798463</v>
+        <v>185.3024416488961</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>201.6734401906734</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C12" t="n">
-        <v>201.6734401906734</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D12" t="n">
-        <v>201.6734401906734</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E12" t="n">
-        <v>201.6734401906734</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F12" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G12" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H12" t="n">
         <v>9.763943861888356</v>
@@ -5121,10 +5121,10 @@
         <v>9.763943861888356</v>
       </c>
       <c r="K12" t="n">
-        <v>41.00029403282535</v>
+        <v>48.64509028167981</v>
       </c>
       <c r="L12" t="n">
-        <v>41.00029403282535</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="M12" t="n">
         <v>161.8290993236938</v>
@@ -5139,31 +5139,31 @@
         <v>488.1971930944178</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="S12" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="T12" t="n">
-        <v>467.4241561946925</v>
+        <v>461.2255843550302</v>
       </c>
       <c r="U12" t="n">
-        <v>424.1461601279856</v>
+        <v>337.9434648867428</v>
       </c>
       <c r="V12" t="n">
-        <v>377.4123770567253</v>
+        <v>214.6613454184555</v>
       </c>
       <c r="W12" t="n">
-        <v>254.130257588438</v>
+        <v>91.37922595016818</v>
       </c>
       <c r="X12" t="n">
-        <v>230.96819823024</v>
+        <v>39.05870190145511</v>
       </c>
       <c r="Y12" t="n">
-        <v>201.6734401906734</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.36184332167602</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C13" t="n">
-        <v>26.36184332167602</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D13" t="n">
-        <v>26.36184332167602</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E13" t="n">
-        <v>26.36184332167602</v>
+        <v>61.9432149798916</v>
       </c>
       <c r="F13" t="n">
-        <v>81.26288084351991</v>
+        <v>61.9432149798916</v>
       </c>
       <c r="G13" t="n">
-        <v>81.26288084351991</v>
+        <v>68.49489713131929</v>
       </c>
       <c r="H13" t="n">
-        <v>109.5777447404062</v>
+        <v>68.49489713131929</v>
       </c>
       <c r="I13" t="n">
-        <v>109.5777447404062</v>
+        <v>68.49489713131929</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5777447404062</v>
+        <v>142.2332337721127</v>
       </c>
       <c r="K13" t="n">
-        <v>142.2332337721121</v>
+        <v>142.2332337721127</v>
       </c>
       <c r="L13" t="n">
-        <v>263.0620390629805</v>
+        <v>263.0620390629811</v>
       </c>
       <c r="M13" t="n">
-        <v>263.0620390629805</v>
+        <v>383.8908443538495</v>
       </c>
       <c r="N13" t="n">
-        <v>263.0620390629805</v>
+        <v>383.8908443538495</v>
       </c>
       <c r="O13" t="n">
-        <v>263.0620390629805</v>
+        <v>383.8908443538495</v>
       </c>
       <c r="P13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538495</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538489</v>
+        <v>383.8908443538495</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473634</v>
+        <v>374.970579647364</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143203</v>
+        <v>333.5850382143208</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769514</v>
+        <v>303.9299706769519</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313608</v>
+        <v>208.7038911313611</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337898</v>
+        <v>157.4649623337901</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481938</v>
+        <v>60.56775888481955</v>
       </c>
       <c r="X13" t="n">
-        <v>32.75262784099321</v>
+        <v>32.75262784099329</v>
       </c>
       <c r="Y13" t="n">
         <v>9.763943861888356</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.0460633301757</v>
+        <v>241.6329541578432</v>
       </c>
       <c r="C14" t="n">
-        <v>133.0460633301757</v>
+        <v>118.3508346895558</v>
       </c>
       <c r="D14" t="n">
-        <v>133.0460633301757</v>
+        <v>118.3508346895558</v>
       </c>
       <c r="E14" t="n">
-        <v>9.763943861888356</v>
+        <v>118.3508346895558</v>
       </c>
       <c r="F14" t="n">
-        <v>9.763943861888356</v>
+        <v>118.3508346895558</v>
       </c>
       <c r="G14" t="n">
         <v>9.763943861888356</v>
@@ -5282,19 +5282,19 @@
         <v>127.09041603444</v>
       </c>
       <c r="L14" t="n">
-        <v>175.4876665214274</v>
+        <v>175.4876665214273</v>
       </c>
       <c r="M14" t="n">
-        <v>296.3164718122958</v>
+        <v>258.2148925245443</v>
       </c>
       <c r="N14" t="n">
-        <v>417.1452771031642</v>
+        <v>367.3683878035494</v>
       </c>
       <c r="O14" t="n">
-        <v>453.1557880023445</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="P14" t="n">
-        <v>453.1557880023445</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q14" t="n">
         <v>488.1971930944178</v>
@@ -5312,16 +5312,16 @@
         <v>488.1971930944178</v>
       </c>
       <c r="V14" t="n">
+        <v>488.1971930944178</v>
+      </c>
+      <c r="W14" t="n">
         <v>364.9150736261305</v>
       </c>
-      <c r="W14" t="n">
-        <v>256.328182798463</v>
-      </c>
       <c r="X14" t="n">
-        <v>256.328182798463</v>
+        <v>241.6329541578432</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.0460633301757</v>
+        <v>241.6329541578432</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.63344451735009</v>
+        <v>45.87389770938134</v>
       </c>
       <c r="C15" t="n">
-        <v>34.63344451735009</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D15" t="n">
         <v>9.763943861888356</v>
@@ -5358,13 +5358,13 @@
         <v>9.763943861888356</v>
       </c>
       <c r="K15" t="n">
-        <v>9.763943861888356</v>
+        <v>43.26205739618833</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3309857893938</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="M15" t="n">
-        <v>161.8290993236938</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="N15" t="n">
         <v>282.6579046145621</v>
@@ -5376,31 +5376,31 @@
         <v>488.1971930944178</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="S15" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="T15" t="n">
-        <v>467.4241561946926</v>
+        <v>461.2255843550303</v>
       </c>
       <c r="U15" t="n">
-        <v>424.1461601279857</v>
+        <v>417.9475882883235</v>
       </c>
       <c r="V15" t="n">
-        <v>377.4123770567256</v>
+        <v>294.6654688200362</v>
       </c>
       <c r="W15" t="n">
-        <v>304.3597428121226</v>
+        <v>221.6128345754332</v>
       </c>
       <c r="X15" t="n">
-        <v>281.1976834539248</v>
+        <v>198.4507752172353</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.9155639856374</v>
+        <v>169.1560171776687</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.3618433216761</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C16" t="n">
-        <v>54.00788507752963</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D16" t="n">
-        <v>75.34038129271271</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E16" t="n">
-        <v>75.34038129271271</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F16" t="n">
-        <v>75.34038129271271</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G16" t="n">
-        <v>75.34038129271271</v>
+        <v>35.19359276802255</v>
       </c>
       <c r="H16" t="n">
-        <v>75.34038129271271</v>
+        <v>35.19359276802255</v>
       </c>
       <c r="I16" t="n">
-        <v>75.34038129271271</v>
+        <v>64.57110683363437</v>
       </c>
       <c r="J16" t="n">
-        <v>75.34038129271271</v>
+        <v>64.57110683363437</v>
       </c>
       <c r="K16" t="n">
-        <v>75.34038129271271</v>
+        <v>64.57110683363437</v>
       </c>
       <c r="L16" t="n">
-        <v>75.34038129271271</v>
+        <v>185.3999121245028</v>
       </c>
       <c r="M16" t="n">
-        <v>196.1691865835811</v>
+        <v>263.06203906298</v>
       </c>
       <c r="N16" t="n">
-        <v>196.1691865835811</v>
+        <v>263.06203906298</v>
       </c>
       <c r="O16" t="n">
-        <v>196.1691865835811</v>
+        <v>263.06203906298</v>
       </c>
       <c r="P16" t="n">
-        <v>316.9979918744495</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538481</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473628</v>
+        <v>374.970579647363</v>
       </c>
       <c r="S16" t="n">
-        <v>333.5850382143198</v>
+        <v>333.5850382143199</v>
       </c>
       <c r="T16" t="n">
-        <v>303.929970676951</v>
+        <v>303.9299706769511</v>
       </c>
       <c r="U16" t="n">
-        <v>208.7038911313605</v>
+        <v>208.7038911313606</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337896</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481921</v>
+        <v>60.56775888481927</v>
       </c>
       <c r="X16" t="n">
-        <v>32.75262784099312</v>
+        <v>32.75262784099315</v>
       </c>
       <c r="Y16" t="n">
         <v>9.763943861888356</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589147</v>
+        <v>315.9417875589149</v>
       </c>
       <c r="C17" t="n">
         <v>286.319854455857</v>
@@ -5510,40 +5510,40 @@
         <v>9.763943861888356</v>
       </c>
       <c r="I17" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0099974227597</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K17" t="n">
-        <v>123.0099974227597</v>
+        <v>76.33973727374101</v>
       </c>
       <c r="L17" t="n">
-        <v>171.4072479097471</v>
+        <v>124.7369877607284</v>
       </c>
       <c r="M17" t="n">
-        <v>254.1344739128641</v>
+        <v>207.4642137638454</v>
       </c>
       <c r="N17" t="n">
-        <v>331.3578769043691</v>
+        <v>284.6876167553504</v>
       </c>
       <c r="O17" t="n">
-        <v>367.3683878035494</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="P17" t="n">
-        <v>367.3683878035494</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.3683878035494</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="R17" t="n">
-        <v>488.1971930944178</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="S17" t="n">
-        <v>488.1971930944178</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944178</v>
+        <v>418.1743935494821</v>
       </c>
       <c r="U17" t="n">
         <v>488.1971930944178</v>
@@ -5552,13 +5552,13 @@
         <v>488.1971930944178</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190493</v>
+        <v>471.0086272190495</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376815</v>
+        <v>431.7127376376818</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858655</v>
+        <v>369.6866933858657</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H18" t="n">
         <v>9.763943861888356</v>
@@ -5595,16 +5595,16 @@
         <v>9.763943861888356</v>
       </c>
       <c r="K18" t="n">
-        <v>41.00029403282535</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L18" t="n">
-        <v>41.00029403282535</v>
+        <v>128.3309857893938</v>
       </c>
       <c r="M18" t="n">
-        <v>161.8290993236938</v>
+        <v>249.1597910802622</v>
       </c>
       <c r="N18" t="n">
-        <v>282.6579046145621</v>
+        <v>369.9885963711306</v>
       </c>
       <c r="O18" t="n">
         <v>403.4867099054305</v>
@@ -5616,28 +5616,28 @@
         <v>488.1971930944178</v>
       </c>
       <c r="R18" t="n">
-        <v>364.9150736261305</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="S18" t="n">
-        <v>364.9150736261305</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="T18" t="n">
-        <v>364.9150736261305</v>
+        <v>379.6103022667503</v>
       </c>
       <c r="U18" t="n">
-        <v>364.9150736261305</v>
+        <v>256.328182798463</v>
       </c>
       <c r="V18" t="n">
-        <v>364.9150736261305</v>
+        <v>256.328182798463</v>
       </c>
       <c r="W18" t="n">
-        <v>241.6329541578432</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="X18" t="n">
-        <v>241.6329541578432</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="Y18" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="19">
@@ -5753,31 +5753,31 @@
         <v>9.763943861888356</v>
       </c>
       <c r="K20" t="n">
-        <v>9.763943861888356</v>
+        <v>130.5927491527568</v>
       </c>
       <c r="L20" t="n">
-        <v>58.16119434887576</v>
+        <v>178.9899996397442</v>
       </c>
       <c r="M20" t="n">
-        <v>140.8884203519928</v>
+        <v>261.7172256428612</v>
       </c>
       <c r="N20" t="n">
-        <v>218.1118233434978</v>
+        <v>338.9406286343662</v>
       </c>
       <c r="O20" t="n">
-        <v>254.1223342426781</v>
+        <v>374.9511395335465</v>
       </c>
       <c r="P20" t="n">
-        <v>254.1223342426781</v>
+        <v>374.9511395335465</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.1223342426781</v>
+        <v>374.9511395335465</v>
       </c>
       <c r="R20" t="n">
-        <v>298.0496916927277</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="S20" t="n">
-        <v>390.7209271994664</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="T20" t="n">
         <v>488.1971930944178</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.5764039840399</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="C21" t="n">
-        <v>241.2942845157526</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D21" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E21" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F21" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G21" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H21" t="n">
-        <v>118.0121650474652</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I21" t="n">
         <v>9.763943861888356</v>
@@ -5832,19 +5832,19 @@
         <v>9.763943861888356</v>
       </c>
       <c r="K21" t="n">
-        <v>9.763943861888356</v>
+        <v>48.64509028167981</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3309857893938</v>
+        <v>48.64509028167981</v>
       </c>
       <c r="M21" t="n">
-        <v>249.1597910802622</v>
+        <v>169.4738955725482</v>
       </c>
       <c r="N21" t="n">
-        <v>367.3683878035494</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="O21" t="n">
-        <v>488.1971930944178</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="P21" t="n">
         <v>488.1971930944178</v>
@@ -5853,28 +5853,28 @@
         <v>488.1971930944178</v>
       </c>
       <c r="R21" t="n">
+        <v>488.1971930944178</v>
+      </c>
+      <c r="S21" t="n">
+        <v>488.1971930944178</v>
+      </c>
+      <c r="T21" t="n">
         <v>364.9150736261305</v>
       </c>
-      <c r="S21" t="n">
-        <v>364.9150736261305</v>
-      </c>
-      <c r="T21" t="n">
-        <v>364.5764039840399</v>
-      </c>
       <c r="U21" t="n">
-        <v>364.5764039840399</v>
+        <v>241.6329541578432</v>
       </c>
       <c r="V21" t="n">
-        <v>364.5764039840399</v>
+        <v>241.6329541578432</v>
       </c>
       <c r="W21" t="n">
-        <v>364.5764039840399</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="X21" t="n">
-        <v>364.5764039840399</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="Y21" t="n">
-        <v>364.5764039840399</v>
+        <v>133.0460633301757</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="M22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="N22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="O22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="P22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Q22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="R22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="S22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="T22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="U22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="V22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="W22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="X22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Y22" t="n">
-        <v>488.1971930944178</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589147</v>
+        <v>315.9417875589151</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558573</v>
+        <v>286.3198544558577</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618419</v>
+        <v>269.2568483618423</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017569</v>
+        <v>218.1466176017573</v>
       </c>
       <c r="F23" t="n">
-        <v>134.995641813008</v>
+        <v>134.9956418130084</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151845</v>
+        <v>36.05861259151846</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I23" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J23" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="K23" t="n">
-        <v>89.24480594465247</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="L23" t="n">
-        <v>137.6420564316399</v>
+        <v>58.16119434887575</v>
       </c>
       <c r="M23" t="n">
-        <v>220.3692824347569</v>
+        <v>178.9899996397442</v>
       </c>
       <c r="N23" t="n">
-        <v>297.5926854262619</v>
+        <v>262.0391807935478</v>
       </c>
       <c r="O23" t="n">
-        <v>333.6031963254422</v>
+        <v>298.0496916927281</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6031963254422</v>
+        <v>298.0496916927281</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.6031963254422</v>
+        <v>298.0496916927281</v>
       </c>
       <c r="R23" t="n">
-        <v>333.6031963254422</v>
+        <v>298.0496916927281</v>
       </c>
       <c r="S23" t="n">
-        <v>426.2744318321808</v>
+        <v>390.7209271994667</v>
       </c>
       <c r="T23" t="n">
-        <v>426.2744318321808</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190493</v>
+        <v>471.0086272190496</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376815</v>
+        <v>431.7127376376819</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858655</v>
+        <v>369.6866933858659</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>241.6329541578432</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="C24" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="D24" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="E24" t="n">
-        <v>133.0460633301757</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="F24" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="G24" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="H24" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I24" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="K24" t="n">
         <v>48.64509028167981</v>
       </c>
       <c r="L24" t="n">
-        <v>161.8290993236938</v>
+        <v>161.8290993236939</v>
       </c>
       <c r="M24" t="n">
-        <v>282.6579046145621</v>
+        <v>282.6579046145624</v>
       </c>
       <c r="N24" t="n">
-        <v>403.4867099054305</v>
+        <v>403.4867099054309</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054305</v>
+        <v>403.4867099054309</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944178</v>
+        <v>488.1971930944181</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.1971930944178</v>
+        <v>481.9986212547559</v>
       </c>
       <c r="R24" t="n">
-        <v>364.9150736261305</v>
+        <v>481.9986212547559</v>
       </c>
       <c r="S24" t="n">
-        <v>364.9150736261305</v>
+        <v>358.7165017864685</v>
       </c>
       <c r="T24" t="n">
-        <v>364.9150736261305</v>
+        <v>358.7165017864685</v>
       </c>
       <c r="U24" t="n">
-        <v>364.9150736261305</v>
+        <v>358.7165017864685</v>
       </c>
       <c r="V24" t="n">
-        <v>241.6329541578432</v>
+        <v>256.3281827984632</v>
       </c>
       <c r="W24" t="n">
-        <v>241.6329541578432</v>
+        <v>133.0460633301758</v>
       </c>
       <c r="X24" t="n">
-        <v>241.6329541578432</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="Y24" t="n">
-        <v>241.6329541578432</v>
+        <v>9.763943861888363</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888356</v>
+        <v>9.763943861888363</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6227,13 @@
         <v>171.7509734792162</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281797</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908261</v>
+        <v>636.415575790826</v>
       </c>
       <c r="M26" t="n">
-        <v>929.930787469602</v>
+        <v>929.9307874696019</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136766</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>317.8865916132742</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C27" t="n">
-        <v>317.8865916132742</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D27" t="n">
-        <v>317.8865916132742</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I27" t="n">
         <v>36.07516654911174</v>
@@ -6306,49 +6306,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K27" t="n">
-        <v>74.95631296890321</v>
+        <v>74.95631296890319</v>
       </c>
       <c r="L27" t="n">
         <v>193.5233548964086</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6401645971885</v>
+        <v>376.6401645971884</v>
       </c>
       <c r="N27" t="n">
-        <v>583.0234209365547</v>
+        <v>583.0234209365545</v>
       </c>
       <c r="O27" t="n">
-        <v>716.0766978848382</v>
+        <v>716.076697884838</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738253</v>
       </c>
       <c r="Q27" t="n">
-        <v>794.5886092341632</v>
+        <v>794.5886092341631</v>
       </c>
       <c r="R27" t="n">
-        <v>794.5886092341632</v>
+        <v>658.8680661888345</v>
       </c>
       <c r="S27" t="n">
-        <v>794.5886092341632</v>
+        <v>658.8680661888345</v>
       </c>
       <c r="T27" t="n">
-        <v>577.4696373093321</v>
+        <v>656.8169298681856</v>
       </c>
       <c r="U27" t="n">
-        <v>552.9135418217016</v>
+        <v>563.566470154798</v>
       </c>
       <c r="V27" t="n">
-        <v>524.9016593295179</v>
+        <v>535.5545876626143</v>
       </c>
       <c r="W27" t="n">
-        <v>332.8996078528859</v>
+        <v>266.1560183929056</v>
       </c>
       <c r="X27" t="n">
-        <v>328.4594490737643</v>
+        <v>46.64802400960195</v>
       </c>
       <c r="Y27" t="n">
-        <v>317.8865916132742</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="28">
@@ -6373,31 +6373,31 @@
         <v>82.07054306251803</v>
       </c>
       <c r="G28" t="n">
-        <v>82.07054306251803</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="H28" t="n">
-        <v>82.07054306251803</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="I28" t="n">
-        <v>82.07054306251803</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="J28" t="n">
-        <v>125.2465673039435</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="K28" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="L28" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810516</v>
+        <v>116.7580003597888</v>
       </c>
       <c r="P28" t="n">
         <v>270.2284982810516</v>
@@ -6464,22 +6464,22 @@
         <v>171.7509734792161</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281796</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L29" t="n">
         <v>636.4155757908259</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696013</v>
+        <v>929.9307874696018</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136765</v>
+        <v>1217.942176136766</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711604</v>
+        <v>1464.740672711605</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691694</v>
+        <v>1662.115223691695</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.235767148034</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.9542208932622</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C30" t="n">
-        <v>61.9542208932622</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D30" t="n">
-        <v>61.9542208932622</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E30" t="n">
-        <v>61.9542208932622</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F30" t="n">
-        <v>61.9542208932622</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G30" t="n">
-        <v>61.9542208932622</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H30" t="n">
         <v>36.07516654911174</v>
@@ -6543,49 +6543,49 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890321</v>
+        <v>74.95631296890319</v>
       </c>
       <c r="L30" t="n">
         <v>193.5233548964086</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6401645971885</v>
+        <v>376.6401645971884</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365547</v>
+        <v>583.0234209365545</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848382</v>
+        <v>716.076697884838</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738253</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.5886092341632</v>
+        <v>800.7871810738253</v>
       </c>
       <c r="R30" t="n">
-        <v>794.5886092341632</v>
+        <v>665.0666380284968</v>
       </c>
       <c r="S30" t="n">
-        <v>794.5886092341632</v>
+        <v>471.6483051958446</v>
       </c>
       <c r="T30" t="n">
-        <v>577.4696373093321</v>
+        <v>373.0547300382466</v>
       </c>
       <c r="U30" t="n">
-        <v>552.9135418217016</v>
+        <v>133.430798946434</v>
       </c>
       <c r="V30" t="n">
-        <v>309.8338237253357</v>
+        <v>105.4189164542502</v>
       </c>
       <c r="W30" t="n">
-        <v>255.5030900598091</v>
+        <v>51.08818278872356</v>
       </c>
       <c r="X30" t="n">
-        <v>251.0629312806876</v>
+        <v>46.648024009602</v>
       </c>
       <c r="Y30" t="n">
-        <v>240.4900738201973</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="31">
@@ -6601,40 +6601,40 @@
         <v>36.07516654911174</v>
       </c>
       <c r="D31" t="n">
-        <v>103.132328476567</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="E31" t="n">
-        <v>103.132328476567</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="F31" t="n">
-        <v>103.132328476567</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="G31" t="n">
-        <v>103.132328476567</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="H31" t="n">
-        <v>103.132328476567</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="I31" t="n">
-        <v>116.7580003597893</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="J31" t="n">
-        <v>116.7580003597893</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="K31" t="n">
-        <v>116.7580003597893</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="L31" t="n">
-        <v>116.7580003597893</v>
+        <v>83.65824793421461</v>
       </c>
       <c r="M31" t="n">
-        <v>116.7580003597893</v>
+        <v>270.228498281052</v>
       </c>
       <c r="N31" t="n">
-        <v>116.7580003597893</v>
+        <v>270.228498281052</v>
       </c>
       <c r="O31" t="n">
-        <v>116.7580003597893</v>
+        <v>270.228498281052</v>
       </c>
       <c r="P31" t="n">
         <v>270.228498281052</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300261</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567875</v>
+        <v>885.8553792567889</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223561</v>
+        <v>759.7392152223575</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218552</v>
+        <v>599.5758265218567</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926903</v>
+        <v>407.3716927926918</v>
       </c>
       <c r="G32" t="n">
         <v>199.3815056307866</v>
@@ -6707,19 +6707,19 @@
         <v>636.4155757908261</v>
       </c>
       <c r="M32" t="n">
-        <v>929.930787469602</v>
+        <v>929.9307874696012</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.235767148035</v>
+        <v>1785.235767148034</v>
       </c>
       <c r="R32" t="n">
         <v>1803.758327455587</v>
@@ -6731,19 +6731,19 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.051665537844</v>
+        <v>1742.051665537845</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.998507597428</v>
+        <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781643</v>
+        <v>1506.756783781645</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.407736259859</v>
+        <v>1358.407736259861</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.328534067628</v>
+        <v>1187.328534067629</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F33" t="n">
         <v>36.07516654911174</v>
@@ -6798,31 +6798,31 @@
         <v>800.7871810738255</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7871810738255</v>
+        <v>794.5886092341633</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7871810738255</v>
+        <v>658.8680661888347</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7871810738255</v>
+        <v>465.4497333561826</v>
       </c>
       <c r="T33" t="n">
-        <v>583.6682091489945</v>
+        <v>373.0547300382465</v>
       </c>
       <c r="U33" t="n">
-        <v>344.0442780571819</v>
+        <v>133.4307989464339</v>
       </c>
       <c r="V33" t="n">
-        <v>316.0323955649981</v>
+        <v>105.4189164542501</v>
       </c>
       <c r="W33" t="n">
-        <v>211.5158990714794</v>
+        <v>51.08818278872351</v>
       </c>
       <c r="X33" t="n">
-        <v>207.0757402923579</v>
+        <v>46.64802400960198</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.5028828318677</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="34">
@@ -6859,16 +6859,16 @@
         <v>36.07516654911174</v>
       </c>
       <c r="K34" t="n">
-        <v>181.0570975262199</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L34" t="n">
-        <v>181.0570975262199</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M34" t="n">
-        <v>181.0570975262199</v>
+        <v>75.06626805783196</v>
       </c>
       <c r="N34" t="n">
-        <v>181.0570975262199</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="O34" t="n">
         <v>270.2284982810518</v>
@@ -6932,31 +6932,31 @@
         <v>26.31122268722338</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967349</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J35" t="n">
-        <v>33.73340056967349</v>
+        <v>196.8113455144154</v>
       </c>
       <c r="K35" t="n">
-        <v>274.0370826157246</v>
+        <v>291.073853082552</v>
       </c>
       <c r="L35" t="n">
-        <v>322.4343331027121</v>
+        <v>339.4711035695395</v>
       </c>
       <c r="M35" t="n">
-        <v>405.1615591058292</v>
+        <v>665.0724843239288</v>
       </c>
       <c r="N35" t="n">
-        <v>727.9972636700807</v>
+        <v>987.9081888881803</v>
       </c>
       <c r="O35" t="n">
-        <v>826.0403989248614</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="P35" t="n">
-        <v>1058.239265802039</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="Q35" t="n">
-        <v>1216.184125155467</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="R35" t="n">
         <v>1269.531001360107</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>199.8744265658089</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C36" t="n">
-        <v>199.8744265658089</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D36" t="n">
-        <v>199.8744265658089</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E36" t="n">
         <v>26.31122268722338</v>
@@ -7041,25 +7041,25 @@
         <v>791.0232372119372</v>
       </c>
       <c r="S36" t="n">
-        <v>791.0232372119372</v>
+        <v>597.604904379285</v>
       </c>
       <c r="T36" t="n">
-        <v>791.0232372119372</v>
+        <v>597.604904379285</v>
       </c>
       <c r="U36" t="n">
-        <v>551.3993061201245</v>
+        <v>597.604904379285</v>
       </c>
       <c r="V36" t="n">
-        <v>438.1817640452201</v>
+        <v>515.2177863402358</v>
       </c>
       <c r="W36" t="n">
-        <v>419.3824209491125</v>
+        <v>245.819217070527</v>
       </c>
       <c r="X36" t="n">
-        <v>199.8744265658089</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.8744265658089</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="37">
@@ -7108,7 +7108,7 @@
         <v>26.31122268722338</v>
       </c>
       <c r="O37" t="n">
-        <v>26.31122268722338</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="P37" t="n">
         <v>109.9279233847935</v>
@@ -7178,28 +7178,28 @@
         <v>204.2335233968655</v>
       </c>
       <c r="L38" t="n">
-        <v>345.5677950615299</v>
+        <v>498.2430754565995</v>
       </c>
       <c r="M38" t="n">
-        <v>671.1691758159193</v>
+        <v>823.8444562109888</v>
       </c>
       <c r="N38" t="n">
-        <v>994.0048803801709</v>
+        <v>1146.68016077524</v>
       </c>
       <c r="O38" t="n">
-        <v>1030.015391279351</v>
+        <v>1182.690671674421</v>
       </c>
       <c r="P38" t="n">
-        <v>1262.214258156529</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="Q38" t="n">
-        <v>1262.214258156529</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="R38" t="n">
-        <v>1315.561134361169</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="S38" t="n">
-        <v>1315.561134361169</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T38" t="n">
         <v>1315.561134361169</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>309.63618163616</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C39" t="n">
-        <v>309.63618163616</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D39" t="n">
-        <v>309.63618163616</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E39" t="n">
-        <v>136.0729777575745</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F39" t="n">
         <v>26.31122268722338</v>
@@ -7281,22 +7281,22 @@
         <v>791.0232372119372</v>
       </c>
       <c r="T39" t="n">
-        <v>791.0232372119372</v>
+        <v>573.9042652871061</v>
       </c>
       <c r="U39" t="n">
-        <v>791.0232372119372</v>
+        <v>573.9042652871061</v>
       </c>
       <c r="V39" t="n">
-        <v>547.9435191155712</v>
+        <v>573.9042652871061</v>
       </c>
       <c r="W39" t="n">
-        <v>529.1441760194637</v>
+        <v>555.1049221909985</v>
       </c>
       <c r="X39" t="n">
-        <v>309.63618163616</v>
+        <v>430.4877686788308</v>
       </c>
       <c r="Y39" t="n">
-        <v>309.63618163616</v>
+        <v>204.8470756141585</v>
       </c>
     </row>
     <row r="40">
@@ -7330,40 +7330,40 @@
         <v>26.31122268722338</v>
       </c>
       <c r="J40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="L40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="M40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="N40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="O40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="P40" t="n">
-        <v>106.9735468446524</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.9735468446524</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="R40" t="n">
-        <v>106.9735468446524</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="S40" t="n">
-        <v>106.9735468446524</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T40" t="n">
-        <v>106.9735468446524</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U40" t="n">
-        <v>66.00075844755726</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V40" t="n">
         <v>68.95513498769833</v>
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629606</v>
+        <v>820.9115219629605</v>
       </c>
       <c r="C41" t="n">
         <v>710.1949433311161</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083137</v>
       </c>
       <c r="E41" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194415</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019059</v>
+        <v>315.5867941019055</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
       </c>
       <c r="H41" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I41" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J41" t="n">
-        <v>191.2437500379547</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K41" t="n">
-        <v>424.1252542015558</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="L41" t="n">
-        <v>710.7126283788397</v>
+        <v>314.7531792704966</v>
       </c>
       <c r="M41" t="n">
-        <v>1031.629978072253</v>
+        <v>397.4804052736137</v>
       </c>
       <c r="N41" t="n">
-        <v>1108.853381063758</v>
+        <v>712.8939319554152</v>
       </c>
       <c r="O41" t="n">
-        <v>1383.054015653235</v>
+        <v>987.0945665448919</v>
       </c>
       <c r="P41" t="n">
-        <v>1390.294850848453</v>
+        <v>1211.871255539619</v>
       </c>
       <c r="Q41" t="n">
-        <v>1390.294850848453</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.294850848453</v>
+        <v>1377.104477424479</v>
       </c>
       <c r="S41" t="n">
         <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.29025466064</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="U41" t="n">
         <v>1398.640155142399</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186984</v>
+        <v>955.7510733186983</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>526.8282971916615</v>
+        <v>170.5863652975033</v>
       </c>
       <c r="C42" t="n">
-        <v>526.8282971916615</v>
+        <v>170.5863652975033</v>
       </c>
       <c r="D42" t="n">
-        <v>366.0481809526932</v>
+        <v>170.5863652975033</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0481809526932</v>
+        <v>170.5863652975033</v>
       </c>
       <c r="F42" t="n">
-        <v>205.6204646699373</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G42" t="n">
-        <v>80.62312331063927</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H42" t="n">
-        <v>80.62312331063927</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I42" t="n">
-        <v>80.62312331063927</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J42" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300429</v>
+        <v>67.0469515130043</v>
       </c>
       <c r="L42" t="n">
         <v>185.6139934405098</v>
@@ -7512,28 +7512,28 @@
         <v>792.8778196179265</v>
       </c>
       <c r="R42" t="n">
-        <v>792.8778196179265</v>
+        <v>657.157276572598</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8778196179265</v>
+        <v>657.157276572598</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8778196179265</v>
+        <v>440.0383046477669</v>
       </c>
       <c r="U42" t="n">
-        <v>553.253888526114</v>
+        <v>440.0383046477669</v>
       </c>
       <c r="V42" t="n">
-        <v>553.2005184455592</v>
+        <v>196.958586551401</v>
       </c>
       <c r="W42" t="n">
-        <v>526.8282971916615</v>
+        <v>170.5863652975033</v>
       </c>
       <c r="X42" t="n">
-        <v>526.8282971916615</v>
+        <v>170.5863652975033</v>
       </c>
       <c r="Y42" t="n">
-        <v>526.8282971916615</v>
+        <v>170.5863652975033</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="C43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="D43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="E43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="L43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="M43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="N43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.486777913229</v>
       </c>
       <c r="O43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.486777913229</v>
       </c>
       <c r="P43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.486777913229</v>
       </c>
       <c r="Q43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.486777913229</v>
       </c>
       <c r="R43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.486777913229</v>
       </c>
       <c r="S43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.486777913229</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.486777913229</v>
       </c>
       <c r="U43" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834362</v>
       </c>
       <c r="V43" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147792</v>
       </c>
       <c r="W43" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="X43" t="n">
-        <v>46.65566792934909</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.87593153361875</v>
+        <v>28.16580509321281</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629613</v>
+        <v>820.9115219629614</v>
       </c>
       <c r="C44" t="n">
         <v>710.194943331117</v>
@@ -7631,7 +7631,7 @@
         <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194419</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F44" t="n">
         <v>315.586794101906</v>
@@ -7640,43 +7640,43 @@
         <v>135.5551193516299</v>
       </c>
       <c r="H44" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I44" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J44" t="n">
-        <v>48.18496503378961</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K44" t="n">
-        <v>281.0664691973906</v>
+        <v>261.0473092568138</v>
       </c>
       <c r="L44" t="n">
-        <v>567.6538433746745</v>
+        <v>309.4445597438013</v>
       </c>
       <c r="M44" t="n">
-        <v>650.3810693777915</v>
+        <v>392.1717857469183</v>
       </c>
       <c r="N44" t="n">
-        <v>965.7945960595929</v>
+        <v>707.5853124287197</v>
       </c>
       <c r="O44" t="n">
-        <v>1001.805106958773</v>
+        <v>973.8758124487708</v>
       </c>
       <c r="P44" t="n">
-        <v>1226.581795953501</v>
+        <v>1198.652501443498</v>
       </c>
       <c r="Q44" t="n">
-        <v>1377.104477424478</v>
+        <v>1349.175182914476</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.104477424478</v>
+        <v>1395.099881236666</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.294850848453</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.29025466064</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="U44" t="n">
         <v>1398.640155142399</v>
@@ -7691,7 +7691,7 @@
         <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186991</v>
+        <v>955.7510733186992</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>90.38361634319813</v>
+        <v>188.9459213321811</v>
       </c>
       <c r="C45" t="n">
-        <v>90.38361634319813</v>
+        <v>188.9459213321811</v>
       </c>
       <c r="D45" t="n">
-        <v>90.38361634319813</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="E45" t="n">
-        <v>90.38361634319813</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F45" t="n">
-        <v>90.38361634319813</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G45" t="n">
-        <v>90.38361634319813</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H45" t="n">
-        <v>90.38361634319813</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I45" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J45" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300427</v>
+        <v>67.04695151300429</v>
       </c>
       <c r="L45" t="n">
         <v>185.6139934405097</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7308031412895</v>
+        <v>368.7308031412896</v>
       </c>
       <c r="N45" t="n">
-        <v>575.1140594806557</v>
+        <v>575.1140594806558</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1673364289392</v>
+        <v>708.1673364289393</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179264</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="S45" t="n">
-        <v>599.4594867852743</v>
+        <v>792.8778196179265</v>
       </c>
       <c r="T45" t="n">
-        <v>599.4594867852743</v>
+        <v>575.7588476930955</v>
       </c>
       <c r="U45" t="n">
-        <v>359.8355556934617</v>
+        <v>575.7588476930955</v>
       </c>
       <c r="V45" t="n">
-        <v>359.7821856129068</v>
+        <v>575.7054776125406</v>
       </c>
       <c r="W45" t="n">
-        <v>90.38361634319813</v>
+        <v>306.3069083428319</v>
       </c>
       <c r="X45" t="n">
-        <v>90.38361634319813</v>
+        <v>306.3069083428319</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.38361634319813</v>
+        <v>188.9459213321811</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="C46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="D46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="E46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4867779132288</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="U46" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834356</v>
       </c>
       <c r="V46" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147789</v>
       </c>
       <c r="W46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="X46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
     </row>
   </sheetData>
@@ -8769,13 +8769,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>163.6514571711666</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.5398549409795</v>
+        <v>234.8671368015997</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383723</v>
+        <v>116.8104068647679</v>
       </c>
       <c r="N12" t="n">
         <v>224.1952211518977</v>
@@ -9006,16 +9006,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0995883116343</v>
+        <v>165.9360666291091</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>150.6468851822425</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518977</v>
+        <v>102.1459228782932</v>
       </c>
       <c r="O15" t="n">
         <v>242.8748317222146</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>163.6514571711666</v>
+        <v>132.0995883116343</v>
       </c>
       <c r="L18" t="n">
-        <v>120.5398549409795</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>238.8597051383723</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518977</v>
+        <v>224.1952211518976</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222146</v>
+        <v>154.6620117660848</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.0995883116343</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5398549409795</v>
       </c>
       <c r="M21" t="n">
         <v>238.8597051383723</v>
       </c>
       <c r="N21" t="n">
-        <v>221.5485458311085</v>
+        <v>216.4732047389134</v>
       </c>
       <c r="O21" t="n">
         <v>242.8748317222146</v>
       </c>
       <c r="P21" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,16 +9720,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>234.8671368015997</v>
+        <v>234.8671368015998</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383723</v>
+        <v>238.8597051383724</v>
       </c>
       <c r="N24" t="n">
         <v>224.1952211518977</v>
       </c>
       <c r="O24" t="n">
-        <v>120.8255334486101</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029787</v>
+        <v>179.7047647029788</v>
       </c>
       <c r="C11" t="n">
-        <v>33.77372343271975</v>
+        <v>155.8230217063243</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34038569376821</v>
+        <v>143.3896839673727</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867815</v>
+        <v>177.0964363867816</v>
       </c>
       <c r="F11" t="n">
         <v>208.8167739651589</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4449668635718</v>
+        <v>102.3956685899674</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766312</v>
+        <v>100.7952154410981</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2136088607983</v>
+        <v>46.21360886079838</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163209</v>
+        <v>32.88999934163218</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293232</v>
+        <v>28.03643329293241</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385736</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.4973079342974</v>
+        <v>4.448009660693032</v>
       </c>
       <c r="W11" t="n">
-        <v>21.46468987730782</v>
+        <v>21.4646898773079</v>
       </c>
       <c r="X11" t="n">
-        <v>57.89921670046071</v>
+        <v>165.4002386198516</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435953</v>
+        <v>187.9030917435954</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029786</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C14" t="n">
-        <v>155.8230217063241</v>
+        <v>33.77372343271969</v>
       </c>
       <c r="D14" t="n">
         <v>143.3896839673726</v>
       </c>
       <c r="E14" t="n">
-        <v>55.047138113177</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F14" t="n">
         <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635717</v>
+        <v>116.943944944181</v>
       </c>
       <c r="H14" t="n">
-        <v>152.5290299766311</v>
+        <v>152.5290299766312</v>
       </c>
       <c r="I14" t="n">
-        <v>46.2136088607982</v>
+        <v>46.21360886079824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163201</v>
+        <v>32.88999934163203</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293226</v>
+        <v>28.03643329293227</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385728</v>
+        <v>55.76720738385731</v>
       </c>
       <c r="V14" t="n">
-        <v>4.448009660692861</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="W14" t="n">
-        <v>36.01296623152146</v>
+        <v>21.46468987730776</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198514</v>
+        <v>43.350940346247</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.85379346999073</v>
+        <v>187.9030917435952</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666208.5175859748</v>
+        <v>666208.5175859747</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>859883.6952970483</v>
+      </c>
+      <c r="C2" t="n">
+        <v>859883.6952970478</v>
+      </c>
+      <c r="D2" t="n">
         <v>859883.6952970482</v>
       </c>
-      <c r="C2" t="n">
-        <v>859883.6952970482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>859883.6952970483</v>
-      </c>
       <c r="E2" t="n">
-        <v>740990.3367949671</v>
+        <v>740990.3367949668</v>
       </c>
       <c r="F2" t="n">
-        <v>740990.3367949671</v>
+        <v>740990.3367949672</v>
       </c>
       <c r="G2" t="n">
-        <v>861625.5851370727</v>
+        <v>861625.5851370726</v>
       </c>
       <c r="H2" t="n">
-        <v>861625.585137073</v>
+        <v>861625.5851370725</v>
       </c>
       <c r="I2" t="n">
-        <v>861625.5851370728</v>
+        <v>861625.5851370731</v>
       </c>
       <c r="J2" t="n">
         <v>861625.585137072</v>
       </c>
       <c r="K2" t="n">
+        <v>861625.5851370724</v>
+      </c>
+      <c r="L2" t="n">
+        <v>861625.5851370719</v>
+      </c>
+      <c r="M2" t="n">
         <v>861625.5851370725</v>
       </c>
-      <c r="L2" t="n">
-        <v>861625.5851370718</v>
-      </c>
-      <c r="M2" t="n">
-        <v>861625.5851370728</v>
-      </c>
       <c r="N2" t="n">
-        <v>861625.5851370727</v>
+        <v>861625.5851370731</v>
       </c>
       <c r="O2" t="n">
-        <v>861625.5851370723</v>
+        <v>861625.5851370719</v>
       </c>
       <c r="P2" t="n">
-        <v>861625.585137072</v>
+        <v>861625.5851370717</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845677</v>
+        <v>275373.0470845676</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="G3" t="n">
         <v>101197.8463474379</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107728</v>
+        <v>155188.0488107727</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240153</v>
+        <v>68716.99883240147</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>456676.6510757953</v>
       </c>
       <c r="E4" t="n">
-        <v>349734.5238460588</v>
+        <v>349734.5238460587</v>
       </c>
       <c r="F4" t="n">
         <v>349734.5238460589</v>
@@ -26448,7 +26448,7 @@
         <v>419094.788274104</v>
       </c>
       <c r="M4" t="n">
-        <v>418553.2323741538</v>
+        <v>418553.2323741539</v>
       </c>
       <c r="N4" t="n">
         <v>418553.2323741539</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>26025.86226334827</v>
+      </c>
+      <c r="F5" t="n">
         <v>26025.86226334829</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26025.8622633483</v>
       </c>
       <c r="G5" t="n">
         <v>36660.36444407673</v>
@@ -26488,7 +26488,7 @@
         <v>36660.36444407673</v>
       </c>
       <c r="I5" t="n">
-        <v>36660.36444407673</v>
+        <v>36660.36444407674</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082261</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369579.4442212529</v>
+        <v>369574.9778370478</v>
       </c>
       <c r="C6" t="n">
-        <v>369579.4442212529</v>
+        <v>369574.9778370474</v>
       </c>
       <c r="D6" t="n">
-        <v>369579.444221253</v>
+        <v>369574.9778370477</v>
       </c>
       <c r="E6" t="n">
-        <v>89856.9036009923</v>
+        <v>89547.58245139712</v>
       </c>
       <c r="F6" t="n">
-        <v>365229.9506855599</v>
+        <v>364920.6295359647</v>
       </c>
       <c r="G6" t="n">
-        <v>303529.340470916</v>
+        <v>303529.3404709158</v>
       </c>
       <c r="H6" t="n">
-        <v>404727.186818354</v>
+        <v>404727.1868183536</v>
       </c>
       <c r="I6" t="n">
-        <v>404727.1868183539</v>
+        <v>404727.1868183541</v>
       </c>
       <c r="J6" t="n">
-        <v>239762.1644013725</v>
+        <v>239762.1644013726</v>
       </c>
       <c r="K6" t="n">
-        <v>394950.2132121458</v>
+        <v>394950.2132121457</v>
       </c>
       <c r="L6" t="n">
         <v>293752.3668647073</v>
       </c>
       <c r="M6" t="n">
-        <v>371814.287527109</v>
+        <v>371814.2875271086</v>
       </c>
       <c r="N6" t="n">
-        <v>399955.1488580887</v>
+        <v>399955.1488580891</v>
       </c>
       <c r="O6" t="n">
-        <v>330358.8518943132</v>
+        <v>330358.851894313</v>
       </c>
       <c r="P6" t="n">
-        <v>399075.8507267146</v>
+        <v>399075.8507267142</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="F2" t="n">
         <v>194.3824756748547</v>
@@ -26808,7 +26808,7 @@
         <v>122.0492982736044</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="J4" t="n">
         <v>450.9395818638968</v>
@@ -26826,10 +26826,10 @@
         <v>328.8902835902923</v>
       </c>
       <c r="O4" t="n">
-        <v>352.07256366516</v>
+        <v>352.0725636651601</v>
       </c>
       <c r="P4" t="n">
-        <v>352.07256366516</v>
+        <v>352.0725636651601</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="G2" t="n">
         <v>126.4973079342973</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384292</v>
+        <v>86.41984931384283</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342973</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
         <v>35.17607666372484</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763068</v>
+        <v>78.92269993763057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486772</v>
+        <v>23.18228007486783</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
         <v>126.4973079342973</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384292</v>
+        <v>86.41984931384283</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87088762177221</v>
+        <v>104.5857958734725</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946156942</v>
+        <v>127.4115402197614</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.04586090844789</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>70.16911688031105</v>
+        <v>85.67504484008901</v>
       </c>
       <c r="P11" t="n">
-        <v>135.5982222085226</v>
+        <v>13.54892393491818</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55297193870591</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
     </row>
     <row r="12">
@@ -28178,13 +28178,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>90.88233602803562</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H12" t="n">
-        <v>3.630777604230023</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I12" t="n">
         <v>107.1657389737211</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265591</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
@@ -28220,22 +28220,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748546</v>
+        <v>115.17839350729</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748546</v>
+        <v>118.5996226417978</v>
       </c>
       <c r="W12" t="n">
         <v>144.6552853034071</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748546</v>
+        <v>165.5155956312447</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.3824756748546</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,67 +28254,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748546</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>175.3138223872724</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3824756748546</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I13" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8993073508207</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="K13" t="n">
-        <v>99.45610477803702</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L13" t="n">
         <v>153.4855082474397</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46235891800147</v>
+        <v>146.5116571916059</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O13" t="n">
         <v>36.79854607717665</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507723</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q13" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748546</v>
+        <v>194.3824756748545</v>
       </c>
     </row>
     <row r="14">
@@ -28351,25 +28351,25 @@
         <v>194.3824756748547</v>
       </c>
       <c r="K14" t="n">
-        <v>5.362241946156942</v>
+        <v>5.362241946156956</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>38.48644372500139</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44.04586090844789</v>
+        <v>32.25261847222234</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>85.67504484008901</v>
       </c>
       <c r="P14" t="n">
-        <v>13.54892393491816</v>
+        <v>13.54892393491818</v>
       </c>
       <c r="Q14" t="n">
-        <v>123.9483306175678</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R14" t="n">
         <v>194.2075003718243</v>
@@ -28406,10 +28406,10 @@
         <v>54.70119612406128</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>151.7692972153479</v>
       </c>
       <c r="D15" t="n">
-        <v>134.5515094276714</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265591</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3633376148752</v>
@@ -28463,7 +28463,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748547</v>
+        <v>118.5996226417978</v>
       </c>
       <c r="W15" t="n">
         <v>194.3824756748547</v>
@@ -28472,7 +28472,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.3349878604212</v>
+        <v>194.3824756748547</v>
       </c>
     </row>
     <row r="16">
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.3824756748547</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>194.3824756748547</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>166.7306262256431</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,28 +28497,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H16" t="n">
         <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8993073508207</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176845</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383524</v>
+        <v>153.4855082474397</v>
       </c>
       <c r="M16" t="n">
-        <v>146.5116571916059</v>
+        <v>102.9089517851502</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O16" t="n">
         <v>36.79854607717665</v>
@@ -28527,7 +28527,7 @@
         <v>179.9457505507723</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.3824756748547</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
         <v>194.3824756748547</v>
@@ -28582,13 +28582,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J17" t="n">
-        <v>109.9771416400623</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156942</v>
+        <v>72.61051811974551</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491816</v>
+        <v>13.54892393491818</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55297193870591</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R17" t="n">
-        <v>316.2567986454288</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S17" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4189089677869</v>
+        <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28658,7 +28658,7 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H18" t="n">
-        <v>3.630777604230019</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I18" t="n">
         <v>107.1657389737211</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265591</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R18" t="n">
-        <v>12.31403934127076</v>
+        <v>26.86231569548438</v>
       </c>
       <c r="S18" t="n">
         <v>191.4841495043256</v>
@@ -28697,7 +28697,7 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276917808945</v>
+        <v>115.17839350729</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>115.8832642146348</v>
+        <v>101.3349878604212</v>
       </c>
     </row>
     <row r="19">
@@ -28743,19 +28743,19 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J19" t="n">
-        <v>119.8993073508207</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176845</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43620997383524</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46235891800147</v>
+        <v>24.46235891800148</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O19" t="n">
         <v>36.79854607717665</v>
@@ -28822,10 +28822,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87088762177221</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156942</v>
+        <v>127.4115402197614</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,19 +28840,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491816</v>
+        <v>13.54892393491818</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870591</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R20" t="n">
-        <v>238.5785685031876</v>
+        <v>308.5974534636135</v>
       </c>
       <c r="S20" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>320.879783609152</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
         <v>250.149683058712</v>
@@ -28883,7 +28883,7 @@
         <v>65.46885325076147</v>
       </c>
       <c r="D21" t="n">
-        <v>37.12301680297409</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28898,7 +28898,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
         <v>51.93274503525221</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265591</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R21" t="n">
-        <v>12.31403934127076</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S21" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T21" t="n">
-        <v>214.612499259913</v>
+        <v>92.89848393197823</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276917808945</v>
+        <v>115.17839350729</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>159.2035616576208</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28980,19 +28980,19 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J22" t="n">
-        <v>119.8993073508207</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176845</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43620997383524</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46235891800147</v>
+        <v>24.46235891800148</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O22" t="n">
         <v>36.79854607717665</v>
@@ -29056,31 +29056,31 @@
         <v>320.879783609152</v>
       </c>
       <c r="I23" t="n">
-        <v>320.879783609152</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87088762177221</v>
+        <v>75.87088762177223</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156942</v>
+        <v>5.362241946156956</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>38.48644372500149</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.884624406362164</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491816</v>
+        <v>13.54892393491818</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55297193870591</v>
+        <v>88.55297193870592</v>
       </c>
       <c r="R23" t="n">
         <v>194.2075003718243</v>
@@ -29089,10 +29089,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4189089677869</v>
+        <v>320.879783609152</v>
       </c>
       <c r="U23" t="n">
-        <v>312.6979267579413</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>80.01712960497512</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.77414084632389</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388631915159</v>
@@ -29159,13 +29159,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265591</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.31403934127075</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4841495043256</v>
+        <v>69.43485123072111</v>
       </c>
       <c r="T24" t="n">
         <v>214.9477822055827</v>
@@ -29174,13 +29174,13 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V24" t="n">
-        <v>118.5996226417978</v>
+        <v>139.284485117277</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>144.6552853034071</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586607</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29217,19 +29217,19 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J25" t="n">
-        <v>119.8993073508207</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176845</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L25" t="n">
-        <v>31.43620997383524</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46235891800147</v>
+        <v>24.46235891800148</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O25" t="n">
         <v>36.79854607717665</v>
@@ -29314,7 +29314,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9171572481394</v>
+        <v>212.9171572481396</v>
       </c>
       <c r="Q26" t="n">
         <v>212.9171572481403</v>
@@ -29360,7 +29360,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29372,7 +29372,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
         <v>51.93274503525221</v>
@@ -29399,25 +29399,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9171572481403</v>
+        <v>144.9097366646407</v>
       </c>
       <c r="V27" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="W27" t="n">
-        <v>76.62255261514591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>212.9171572481403</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6959616282545</v>
+        <v>203.7337972820633</v>
       </c>
       <c r="H28" t="n">
         <v>165.7816030517371</v>
@@ -29454,25 +29454,25 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
-        <v>163.5114530492303</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K28" t="n">
-        <v>212.9171572481403</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L28" t="n">
-        <v>31.43620997383524</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46235891800147</v>
+        <v>24.46235891800148</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O28" t="n">
         <v>36.79854607717665</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89645227716781</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8139378168763</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29606,7 +29606,7 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
-        <v>100.0598120771255</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
         <v>107.1657389737211</v>
@@ -29633,22 +29633,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.136586121265598</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>117.3401427995606</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.9171572481403</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.9171572481403</v>
+        <v>193.2463688215217</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29688,28 +29688,28 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I31" t="n">
-        <v>178.4715239754713</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8993073508207</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47076232176845</v>
+        <v>66.47076232176846</v>
       </c>
       <c r="L31" t="n">
-        <v>31.43620997383524</v>
+        <v>31.43620997383525</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46235891800147</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78359136610008</v>
+        <v>15.78359136610009</v>
       </c>
       <c r="O31" t="n">
         <v>36.79854607717665</v>
       </c>
       <c r="P31" t="n">
-        <v>212.9171572481403</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8139378168763</v>
@@ -29779,7 +29779,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481395</v>
       </c>
       <c r="N32" t="n">
         <v>212.9171572481403</v>
@@ -29794,7 +29794,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9171572481393</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="S32" t="n">
         <v>212.9171572481403</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388631915159</v>
@@ -29870,16 +29870,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265569</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>123.4767289208259</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="W33" t="n">
-        <v>163.2332520484281</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="X33" t="n">
         <v>212.9171572481403</v>
@@ -29931,19 +29931,19 @@
         <v>119.8993073508207</v>
       </c>
       <c r="K34" t="n">
-        <v>212.9171572481403</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L34" t="n">
         <v>31.43620997383523</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46235891800146</v>
+        <v>63.84730993691077</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78359136610006</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="O34" t="n">
-        <v>126.8706680517543</v>
+        <v>36.79854607717662</v>
       </c>
       <c r="P34" t="n">
         <v>57.8964522771678</v>
@@ -30004,34 +30004,34 @@
         <v>248.0932339118651</v>
       </c>
       <c r="I35" t="n">
+        <v>240.5960845356529</v>
+      </c>
+      <c r="J35" t="n">
         <v>248.0932339118651</v>
       </c>
-      <c r="J35" t="n">
-        <v>75.87088762177218</v>
-      </c>
       <c r="K35" t="n">
-        <v>248.0932339118651</v>
+        <v>100.5768960553858</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>245.3274290416892</v>
       </c>
       <c r="N35" t="n">
         <v>248.0932339118651</v>
       </c>
       <c r="O35" t="n">
-        <v>62.65921652080847</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="P35" t="n">
-        <v>248.0932339118651</v>
+        <v>13.54892393491812</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.0932339118651</v>
+        <v>88.55297193870587</v>
       </c>
       <c r="R35" t="n">
-        <v>248.0932339118651</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S35" t="n">
         <v>248.0932339118651</v>
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30113,19 +30113,19 @@
         <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9477822055827</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>128.5635542612468</v>
+        <v>159.0856740567435</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30180,10 +30180,10 @@
         <v>15.78359136610006</v>
       </c>
       <c r="O37" t="n">
-        <v>36.79854607717662</v>
+        <v>121.259859913106</v>
       </c>
       <c r="P37" t="n">
-        <v>142.3577661130972</v>
+        <v>57.8964522771678</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8139378168762</v>
@@ -30250,7 +30250,7 @@
         <v>5.362241946156907</v>
       </c>
       <c r="L38" t="n">
-        <v>93.87577896735047</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="M38" t="n">
         <v>245.3274290416892</v>
@@ -30262,19 +30262,19 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.0932339118651</v>
+        <v>122.0871875633131</v>
       </c>
       <c r="Q38" t="n">
         <v>88.55297193870587</v>
       </c>
       <c r="R38" t="n">
-        <v>248.0932339118651</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S38" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="U38" t="n">
         <v>248.0932339118651</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,10 +30308,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>50.15930160028077</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388631915159</v>
@@ -30353,22 +30353,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>248.0932339118651</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>93.94193246242459</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>201.3764024593349</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K40" t="n">
         <v>66.47076232176843</v>
@@ -30423,7 +30423,7 @@
         <v>57.8964522771678</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8139378168762</v>
+        <v>211.2752516528057</v>
       </c>
       <c r="R40" t="n">
         <v>203.2135377342752</v>
@@ -30438,7 +30438,7 @@
         <v>248.0932339118651</v>
       </c>
       <c r="V40" t="n">
-        <v>248.0932339118651</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>248.0932339118651</v>
@@ -30481,34 +30481,34 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5960845356529</v>
+        <v>75.87088762177218</v>
       </c>
       <c r="K41" t="n">
-        <v>240.5960845356529</v>
+        <v>5.362241946156907</v>
       </c>
       <c r="L41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="P41" t="n">
-        <v>20.86289887958264</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.55297193870587</v>
+        <v>209.066632103018</v>
       </c>
       <c r="R41" t="n">
-        <v>194.2075003718243</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
         <v>240.5960845356529</v>
@@ -30542,16 +30542,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>17.82708451768073</v>
       </c>
       <c r="G42" t="n">
-        <v>24.99149524581088</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H42" t="n">
         <v>125.6800758778345</v>
@@ -30560,7 +30560,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>6.136586121265569</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.4841495043256</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>240.5960845356529</v>
@@ -30645,13 +30645,13 @@
         <v>66.47076232176843</v>
       </c>
       <c r="L43" t="n">
-        <v>76.81429613625433</v>
+        <v>31.43620997383523</v>
       </c>
       <c r="M43" t="n">
         <v>24.46235891800146</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610006</v>
+        <v>120.1482103762174</v>
       </c>
       <c r="O43" t="n">
         <v>36.79854607717662</v>
@@ -30669,7 +30669,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T43" t="n">
-        <v>240.5960845356529</v>
+        <v>223.7409925368497</v>
       </c>
       <c r="U43" t="n">
         <v>240.5960845356529</v>
@@ -30681,10 +30681,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="X43" t="n">
-        <v>240.5960845356529</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>240.5960845356529</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30718,13 +30718,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="J44" t="n">
-        <v>96.09226129912251</v>
+        <v>75.8708876217722</v>
       </c>
       <c r="K44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>240.5960845356529</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>232.6060496170412</v>
       </c>
       <c r="P44" t="n">
         <v>240.5960845356529</v>
@@ -30742,13 +30742,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="R44" t="n">
-        <v>194.2075003718243</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5960845356529</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30779,7 +30779,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30794,10 +30794,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I45" t="n">
-        <v>45.57010583623563</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525221</v>
+        <v>51.9327450352522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265587</v>
+        <v>6.136586121265577</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
         <v>240.5960845356529</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>107.1969089934813</v>
       </c>
     </row>
     <row r="46">
@@ -30861,10 +30861,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>240.5960845356529</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>144.3715579051359</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.6959616282545</v>
@@ -30879,19 +30879,19 @@
         <v>119.8993073508207</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176845</v>
+        <v>66.47076232176843</v>
       </c>
       <c r="L46" t="n">
-        <v>31.43620997383524</v>
+        <v>135.8008289839525</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800147</v>
+        <v>24.46235891800146</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610007</v>
+        <v>15.78359136610006</v>
       </c>
       <c r="O46" t="n">
-        <v>36.79854607717664</v>
+        <v>36.79854607717663</v>
       </c>
       <c r="P46" t="n">
         <v>57.8964522771678</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H11" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I11" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M11" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N11" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R11" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T11" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H12" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J12" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P12" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K13" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M13" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O13" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q13" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R13" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S13" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H14" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I14" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M14" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N14" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R14" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T14" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H15" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J15" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P15" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K16" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M16" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O16" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q16" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R16" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S16" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H17" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I17" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M17" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N17" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R17" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T17" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H18" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J18" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P18" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K19" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M19" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O19" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q19" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S19" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H20" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I20" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M20" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N20" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R20" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T20" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H21" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J21" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P21" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K22" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M22" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O22" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q22" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R22" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S22" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H23" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I23" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M23" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N23" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R23" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T23" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H24" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J24" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P24" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K25" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M25" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O25" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q25" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S25" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H26" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I26" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M26" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N26" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R26" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T26" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H27" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J27" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P27" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K28" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M28" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O28" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q28" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R28" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S28" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852896</v>
       </c>
       <c r="H29" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282598</v>
       </c>
       <c r="I29" t="n">
         <v>16.09372401483339</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928126</v>
+        <v>35.43050926928125</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260458</v>
+        <v>53.10114898260457</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771015</v>
+        <v>65.87667083771014</v>
       </c>
       <c r="M29" t="n">
-        <v>73.3004893825203</v>
+        <v>73.30048938252028</v>
       </c>
       <c r="N29" t="n">
-        <v>74.48656793403175</v>
+        <v>74.48656793403174</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971428</v>
+        <v>70.33555390971426</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02976799138993</v>
+        <v>60.02976799138992</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07985576050423</v>
+        <v>45.07985576050422</v>
       </c>
       <c r="R29" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372422</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572298</v>
+        <v>9.512631761572296</v>
       </c>
       <c r="T29" t="n">
         <v>1.827385432201106</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339596449482317</v>
+        <v>0.03339596449482316</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759313</v>
       </c>
       <c r="H30" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062284</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995883</v>
+        <v>7.690080473995881</v>
       </c>
       <c r="J30" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749621</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708361</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046703</v>
+        <v>48.49648839046701</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009452</v>
+        <v>56.59311452009451</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337348</v>
+        <v>58.09096586337346</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361205</v>
+        <v>53.14188477361203</v>
       </c>
       <c r="P30" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214429</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085046</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86761518342494</v>
+        <v>13.86761518342493</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614336</v>
+        <v>4.148724943614335</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047405</v>
+        <v>0.9002782109047403</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469442128789023</v>
+        <v>0.01469442128789022</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702736</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055881</v>
+        <v>5.631223427055879</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23882242811777</v>
+        <v>13.23882242811776</v>
       </c>
       <c r="K31" t="n">
         <v>21.75545205494985</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83948849034821</v>
+        <v>27.8394884903482</v>
       </c>
       <c r="M31" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875589</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65489236627318</v>
+        <v>28.65489236627317</v>
       </c>
       <c r="O31" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897969</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529364</v>
       </c>
       <c r="Q31" t="n">
         <v>15.67992714226472</v>
       </c>
       <c r="R31" t="n">
-        <v>8.419598267901563</v>
+        <v>8.419598267901561</v>
       </c>
       <c r="S31" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242477</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411918</v>
+        <v>0.8000831350411916</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584502</v>
+        <v>0.01021382725584501</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852897</v>
+        <v>0.4174495561852899</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282599</v>
+        <v>4.275205267282601</v>
       </c>
       <c r="I44" t="n">
-        <v>16.0937240148334</v>
+        <v>16.09372401483341</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928127</v>
+        <v>35.43050926928128</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260459</v>
+        <v>53.10114898260461</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771017</v>
+        <v>65.87667083771019</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252031</v>
+        <v>73.30048938252034</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403177</v>
+        <v>74.4865679340318</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971429</v>
+        <v>70.33555390971432</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138994</v>
+        <v>60.02976799138997</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07985576050424</v>
+        <v>45.07985576050426</v>
       </c>
       <c r="R44" t="n">
-        <v>26.22261568372423</v>
+        <v>26.22261568372424</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572299</v>
+        <v>9.512631761572303</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827385432201107</v>
+        <v>1.827385432201108</v>
       </c>
       <c r="U44" t="n">
         <v>0.03339596449482318</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759314</v>
+        <v>0.2233552035759315</v>
       </c>
       <c r="H45" t="n">
-        <v>2.157141045062285</v>
+        <v>2.157141045062286</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995884</v>
+        <v>7.690080473995887</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749622</v>
+        <v>21.10216859749623</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708362</v>
+        <v>36.06696723708364</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046704</v>
+        <v>48.49648839046706</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009453</v>
+        <v>56.59311452009456</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337349</v>
+        <v>58.09096586337351</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361206</v>
+        <v>53.14188477361208</v>
       </c>
       <c r="P45" t="n">
-        <v>42.6510476021443</v>
+        <v>42.65104760214432</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085047</v>
+        <v>28.51109581085048</v>
       </c>
       <c r="R45" t="n">
         <v>13.86761518342494</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614337</v>
+        <v>4.148724943614338</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047406</v>
+        <v>0.900278210904741</v>
       </c>
       <c r="U45" t="n">
         <v>0.01469442128789023</v>
@@ -34518,43 +34518,43 @@
         <v>0.1872534996904918</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702737</v>
+        <v>1.664853842702738</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055882</v>
+        <v>5.631223427055883</v>
       </c>
       <c r="J46" t="n">
         <v>13.23882242811777</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494986</v>
+        <v>21.75545205494987</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83948849034821</v>
+        <v>27.83948849034822</v>
       </c>
       <c r="M46" t="n">
-        <v>29.3528372287559</v>
+        <v>29.35283722875591</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627318</v>
+        <v>28.6548923662732</v>
       </c>
       <c r="O46" t="n">
-        <v>26.4674310289797</v>
+        <v>26.46743102897971</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529365</v>
+        <v>22.64745963529366</v>
       </c>
       <c r="Q46" t="n">
         <v>15.67992714226473</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901565</v>
+        <v>8.419598267901568</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242478</v>
+        <v>3.263317808242479</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411919</v>
+        <v>0.8000831350411922</v>
       </c>
       <c r="U46" t="n">
         <v>0.01021382725584502</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>28.71490825170026</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301758</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M11" t="n">
-        <v>83.56285454860306</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N11" t="n">
+        <v>78.00343736515654</v>
+      </c>
+      <c r="O11" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="O11" t="n">
-        <v>106.5433703138265</v>
-      </c>
       <c r="P11" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030302905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>31.55186885953232</v>
+        <v>39.27388527251662</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>114.3272818606201</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>122.0492982736044</v>
@@ -35504,7 +35504,7 @@
         <v>122.0492982736044</v>
       </c>
       <c r="P12" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.76555500988653</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,31 +35550,31 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.70633446262954</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640797</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.61786075901787</v>
       </c>
       <c r="H13" t="n">
-        <v>28.60087262311748</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.48316832403377</v>
       </c>
       <c r="K13" t="n">
-        <v>32.98534245626857</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530825</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301758</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M14" t="n">
+        <v>83.56285454860304</v>
+      </c>
+      <c r="N14" t="n">
+        <v>110.2560558373789</v>
+      </c>
+      <c r="O14" t="n">
         <v>122.0492982736044</v>
       </c>
-      <c r="N14" t="n">
-        <v>122.0492982736044</v>
-      </c>
-      <c r="O14" t="n">
-        <v>36.37425343351545</v>
-      </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.39535867886194</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>33.83647831747471</v>
       </c>
       <c r="L15" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M15" t="n">
-        <v>33.83647831747471</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.76555500988661</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.92529470288235</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>21.5479759749324</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,13 +35793,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.6865140466002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.67425663193114</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="M16" t="n">
-        <v>122.0492982736044</v>
+        <v>78.44659286714875</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>122.0492982736044</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.56853785797844</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.28369907349911</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.1062540182901</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>67.24827617358855</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301758</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M17" t="n">
-        <v>83.56285454860306</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N17" t="n">
-        <v>78.00343736515656</v>
+        <v>78.00343736515654</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351545</v>
+        <v>36.37425343351543</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.0492982736044</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>98.46087464136508</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>31.55186885953232</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>119.7646888156621</v>
       </c>
       <c r="M18" t="n">
         <v>122.0492982736044</v>
@@ -35975,10 +35975,10 @@
         <v>122.0492982736044</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736044</v>
+        <v>33.83647831747468</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301758</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M20" t="n">
-        <v>83.56285454860306</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N20" t="n">
-        <v>78.00343736515656</v>
+        <v>78.00343736515654</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351545</v>
+        <v>36.37425343351543</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>44.37106813136327</v>
+        <v>114.3899530917892</v>
       </c>
       <c r="S20" t="n">
-        <v>93.60730859266531</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136508</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.27388527251662</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7646888156621</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="N21" t="n">
-        <v>119.4026229528153</v>
+        <v>114.3272818606201</v>
       </c>
       <c r="O21" t="n">
         <v>122.0492982736044</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.28369907349911</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301758</v>
+        <v>48.88611160301757</v>
       </c>
       <c r="M23" t="n">
-        <v>83.56285454860306</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="N23" t="n">
-        <v>78.00343736515656</v>
+        <v>83.88806177151871</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351545</v>
+        <v>36.37425343351543</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>93.60730859266531</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>98.46087464136508</v>
       </c>
       <c r="U23" t="n">
-        <v>62.54824369922927</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>39.27388527251662</v>
       </c>
       <c r="L24" t="n">
-        <v>114.3272818606201</v>
+        <v>114.3272818606203</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736044</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3682333132212</v>
+        <v>199.3682333132215</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3641853094344</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631599</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P27" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>35.03783565380887</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.61214569840953</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4463949263719</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0207049709725</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P30" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.73450699742955</v>
+        <v>48.06371857081098</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.76330493254775</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.4547983301388</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0207049709724</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>261.8032688511579</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967434</v>
+        <v>296.4800117967426</v>
       </c>
       <c r="N32" t="n">
         <v>290.9205946132969</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094344</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631503</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4463949263719</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>39.38495101890931</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.1335658820402</v>
       </c>
       <c r="O34" t="n">
-        <v>90.07212197457767</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212228</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>172.222346290093</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7309919657082</v>
+        <v>95.2146541092289</v>
       </c>
       <c r="L35" t="n">
         <v>48.88611160301764</v>
       </c>
       <c r="M35" t="n">
-        <v>83.56285454860311</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N35" t="n">
         <v>326.0966712770218</v>
       </c>
       <c r="O35" t="n">
-        <v>99.03346995432398</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P35" t="n">
-        <v>234.544309976947</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.5402619731593</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.88573354004082</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>20.82075889537843</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>84.4613138359294</v>
       </c>
       <c r="P37" t="n">
-        <v>84.4613138359294</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>142.7618905703681</v>
+        <v>296.9793455148828</v>
       </c>
       <c r="M38" t="n">
         <v>328.8902835902923</v>
@@ -37558,19 +37558,19 @@
         <v>36.37425343351551</v>
       </c>
       <c r="P38" t="n">
-        <v>234.544309976947</v>
+        <v>108.5382636283949</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004082</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.67432494407819</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.47709510851419</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.4613138359294</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.984218727415225</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7251969138807</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>235.233842589496</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4821961386706</v>
+        <v>289.4821961386705</v>
       </c>
       <c r="M41" t="n">
-        <v>324.158939084256</v>
+        <v>83.56285454860311</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00343736515661</v>
+        <v>318.5995219008095</v>
       </c>
       <c r="O41" t="n">
         <v>276.9703379691684</v>
       </c>
       <c r="P41" t="n">
-        <v>7.313974944664515</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>120.5136601643122</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.38858416382855</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.32360951916617</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17717556786598</v>
+        <v>18.17717556786593</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>45.3780861624191</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.3646190101173</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.85509199880316</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>18.67662912741039</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.4548117214845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>20.22137367735031</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>235.233842589496</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4821961386705</v>
+        <v>48.88611160301762</v>
       </c>
       <c r="M44" t="n">
-        <v>83.56285454860307</v>
+        <v>83.5628545486031</v>
       </c>
       <c r="N44" t="n">
         <v>318.5995219008095</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351546</v>
+        <v>268.9803030505567</v>
       </c>
       <c r="P44" t="n">
         <v>227.0471606007348</v>
@@ -38038,13 +38038,13 @@
         <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38858416382858</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32360951916622</v>
+        <v>13.32360951916619</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17717556786598</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251663</v>
+        <v>39.27388527251664</v>
       </c>
       <c r="L45" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9664744452321</v>
+        <v>184.9664744452322</v>
       </c>
       <c r="N45" t="n">
         <v>208.4679356963295</v>
@@ -38111,7 +38111,7 @@
         <v>134.3972494427106</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534069</v>
+        <v>85.56614463534072</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.91994332342793</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.444675686689235</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
